--- a/mergingdatasetFINAL2.xlsx
+++ b/mergingdatasetFINAL2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dina\Downloads\group3-project-main\group3-project-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessebecklevisohn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EB36A93-784E-4C68-B586-5D733C88115F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB84D12-C307-7B40-978B-BCC8ABAF9A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11500" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pH control" sheetId="16" r:id="rId1"/>
@@ -657,9 +657,9 @@
       <selection activeCell="E41" sqref="E41:E113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -676,7 +676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -693,7 +693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -710,7 +710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -727,7 +727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -744,7 +744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -761,7 +761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -778,7 +778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -795,7 +795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -812,7 +812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -829,7 +829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -846,7 +846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -863,7 +863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -880,7 +880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -897,7 +897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -914,7 +914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -931,7 +931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -948,7 +948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -965,7 +965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -982,7 +982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -999,7 +999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>6</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>6</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>7</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>7</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>7</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>7</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>8</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>8</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>8</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>8</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>8</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>9</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>9</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>9</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>9</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>9</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>9</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>10</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>10</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>11</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>11</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>11</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>11</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>11</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>11</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>11</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>11</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>11</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>12</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>12</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>12</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>12</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>12</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>12</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>12</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>12</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>12</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>12</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>12</v>
       </c>
@@ -2535,9 +2535,9 @@
       <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>6</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>6</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>7</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>7</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>7</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>7</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>8</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>8</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>8</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>8</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>8</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>9</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>9</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>9</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>9</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>9</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>9</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>10</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>10</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>11</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>11</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>11</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>11</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>11</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>11</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>11</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>12</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>12</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>12</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>12</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>12</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>12</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>12</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>12</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>12</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>12</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>12</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>12</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>12</v>
       </c>
@@ -4378,14 +4378,14 @@
       <selection activeCell="P99" sqref="P99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42179</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42180</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42181</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42182</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42183</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42184</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42185</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42186</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42187</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42188</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42189</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42190</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42191</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42192</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42193</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42194</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42195</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42196</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42197</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42198</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42199</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42200</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42201</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42202</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42203</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42204</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42205</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42206</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42207</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42208</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42209</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42210</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42211</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42212</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42213</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42214</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42215</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42216</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42217</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42218</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42219</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42220</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42221</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42222</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42223</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>42224</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>42225</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>42226</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>42227</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>42228</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>42229</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>42230</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>42231</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>42232</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>42233</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>42234</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>42235</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>42236</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>42237</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>42238</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>42239</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>42240</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>42241</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>42242</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>42243</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>42244</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>42245</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>42246</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>42247</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>42248</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>42249</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>42250</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>42251</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>42252</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>42253</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>42254</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>42255</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>42256</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>42257</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>42258</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>42259</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>42260</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>42261</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>42262</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>42263</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>42264</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>42265</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>42266</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>42267</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>42268</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>42269</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>42270</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>42271</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>34.999367088607606</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -5903,18 +5903,18 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>28</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>28</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>28</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>28</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>56</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>56</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>56</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>56</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>56</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>56</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>56</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>56</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>56</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>84</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>84</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>84</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>84</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>84</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>84</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>84</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>84</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>84</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>84</v>
       </c>
@@ -6943,17 +6943,17 @@
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>28</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>28</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>28</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>28</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>56</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>56</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>56</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>56</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>56</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>56</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>56</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>56</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>56</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>84</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>84</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>84</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>84</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>84</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>84</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>84</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>84</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>84</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>84</v>
       </c>
@@ -7983,9 +7983,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -8016,7 +8016,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>28</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>28</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>28</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>28</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>56</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>56</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>56</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>56</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>56</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>56</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>56</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>56</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>56</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>84</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>84</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>84</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>84</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>84</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>84</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>84</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>84</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>84</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>84</v>
       </c>
@@ -8977,9 +8977,9 @@
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -9010,7 +9010,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>28</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>28</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>28</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>28</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>56</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>56</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>56</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>56</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>56</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>56</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>56</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>56</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>56</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>84</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>84</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>84</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>84</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>84</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>84</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>84</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>84</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>84</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>84</v>
       </c>
@@ -9969,13 +9969,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F87D8-61D0-DF4D-A010-96854C67E199}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -10006,7 +10006,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>28</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>28</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>28</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>28</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>56</v>
       </c>
@@ -10460,6 +10460,9 @@
         <f t="shared" si="0"/>
         <v>70.824145568975496</v>
       </c>
+      <c r="E22" s="18">
+        <v>15.946428571428584</v>
+      </c>
       <c r="F22" s="19">
         <v>3.4762121641371002</v>
       </c>
@@ -10470,7 +10473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>56</v>
       </c>
@@ -10484,6 +10487,9 @@
         <f t="shared" si="0"/>
         <v>67.565687534311579</v>
       </c>
+      <c r="E23" s="18">
+        <v>7.8392857142857153</v>
+      </c>
       <c r="F23" s="19">
         <v>5.8651725519292599</v>
       </c>
@@ -10494,7 +10500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>56</v>
       </c>
@@ -10508,6 +10514,9 @@
         <f t="shared" si="0"/>
         <v>77.350816302919114</v>
       </c>
+      <c r="E24" s="18">
+        <v>4.9107142857142607</v>
+      </c>
       <c r="F24" s="19">
         <v>8.17808702390702</v>
       </c>
@@ -10518,7 +10527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>56</v>
       </c>
@@ -10532,6 +10541,9 @@
         <f t="shared" si="0"/>
         <v>79.588652099300347</v>
       </c>
+      <c r="E25" s="18">
+        <v>20.357142857142868</v>
+      </c>
       <c r="F25" s="19">
         <v>7.6591839360588798</v>
       </c>
@@ -10542,7 +10554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>56</v>
       </c>
@@ -10556,6 +10568,9 @@
         <f t="shared" si="0"/>
         <v>95.343556619885121</v>
       </c>
+      <c r="E26" s="18">
+        <v>11.714285714285692</v>
+      </c>
       <c r="F26" s="19">
         <v>4.7160021742409697</v>
       </c>
@@ -10566,7 +10581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>56</v>
       </c>
@@ -10580,6 +10595,9 @@
         <f t="shared" si="0"/>
         <v>79.548502813298384</v>
       </c>
+      <c r="E27" s="18">
+        <v>9.9107142857142811</v>
+      </c>
       <c r="F27" s="19">
         <v>3.9218527847469402</v>
       </c>
@@ -10590,7 +10608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>56</v>
       </c>
@@ -10604,6 +10622,9 @@
         <f t="shared" si="0"/>
         <v>67.732990095126553</v>
       </c>
+      <c r="E28" s="18">
+        <v>12.267857142857164</v>
+      </c>
       <c r="F28" s="19">
         <v>5.6558887297466898</v>
       </c>
@@ -10614,7 +10635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>56</v>
       </c>
@@ -10628,6 +10649,9 @@
         <f t="shared" si="0"/>
         <v>76.287187931489129</v>
       </c>
+      <c r="E29" s="18">
+        <v>12.160714285714302</v>
+      </c>
       <c r="F29" s="19">
         <v>3.0048377736729499</v>
       </c>
@@ -10638,7 +10662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>56</v>
       </c>
@@ -10652,6 +10676,9 @@
         <f t="shared" si="0"/>
         <v>61.871829705520582</v>
       </c>
+      <c r="E30" s="18">
+        <v>15.053571428571429</v>
+      </c>
       <c r="F30" s="19">
         <v>4.4866565151515596</v>
       </c>
@@ -10662,7 +10689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -10676,6 +10703,9 @@
         <f t="shared" si="0"/>
         <v>92.95701428537545</v>
       </c>
+      <c r="E31" s="22">
+        <v>17.535714285714274</v>
+      </c>
       <c r="F31" s="23">
         <v>3.49372688300733</v>
       </c>
@@ -10686,7 +10716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>84</v>
       </c>
@@ -10713,7 +10743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>84</v>
       </c>
@@ -10740,7 +10770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>84</v>
       </c>
@@ -10767,7 +10797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>84</v>
       </c>
@@ -10794,7 +10824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>84</v>
       </c>
@@ -10821,7 +10851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>84</v>
       </c>
@@ -10848,7 +10878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>84</v>
       </c>
@@ -10875,7 +10905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>84</v>
       </c>
@@ -10902,7 +10932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>84</v>
       </c>
@@ -10929,7 +10959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>84</v>
       </c>
@@ -10965,13 +10995,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20815BDD-EA8C-2D46-845A-59FD9781CE26}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -11002,7 +11032,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11019,7 +11049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -11036,7 +11066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -11053,7 +11083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -11070,7 +11100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -11087,7 +11117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -11104,7 +11134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -11121,7 +11151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -11138,7 +11168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -11155,7 +11185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -11177,7 +11207,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>28</v>
       </c>
@@ -11207,7 +11237,7 @@
       <c r="L12" s="19"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>28</v>
       </c>
@@ -11237,7 +11267,7 @@
       <c r="L13" s="19"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>28</v>
       </c>
@@ -11267,7 +11297,7 @@
       <c r="L14" s="19"/>
       <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>28</v>
       </c>
@@ -11297,7 +11327,7 @@
       <c r="L15" s="19"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -11327,7 +11357,7 @@
       <c r="L16" s="19"/>
       <c r="M16" s="21"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28</v>
       </c>
@@ -11357,7 +11387,7 @@
       <c r="L17" s="19"/>
       <c r="M17" s="21"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28</v>
       </c>
@@ -11387,7 +11417,7 @@
       <c r="L18" s="19"/>
       <c r="M18" s="21"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -11417,7 +11447,7 @@
       <c r="L19" s="19"/>
       <c r="M19" s="21"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28</v>
       </c>
@@ -11447,7 +11477,7 @@
       <c r="L20" s="19"/>
       <c r="M20" s="21"/>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -11477,7 +11507,7 @@
       <c r="L21" s="23"/>
       <c r="M21" s="25"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>56</v>
       </c>
@@ -11504,7 +11534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>56</v>
       </c>
@@ -11531,7 +11561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>56</v>
       </c>
@@ -11558,7 +11588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>56</v>
       </c>
@@ -11585,7 +11615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>56</v>
       </c>
@@ -11612,7 +11642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>56</v>
       </c>
@@ -11639,7 +11669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>56</v>
       </c>
@@ -11666,7 +11696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>56</v>
       </c>
@@ -11693,7 +11723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>56</v>
       </c>
@@ -11720,7 +11750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -11747,7 +11777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>84</v>
       </c>
@@ -11774,7 +11804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>84</v>
       </c>
@@ -11801,7 +11831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>84</v>
       </c>
@@ -11828,7 +11858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>84</v>
       </c>
@@ -11855,7 +11885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>84</v>
       </c>
@@ -11882,7 +11912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>84</v>
       </c>
@@ -11909,7 +11939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>84</v>
       </c>
@@ -11936,7 +11966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>84</v>
       </c>
@@ -11963,7 +11993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>84</v>
       </c>
@@ -11990,7 +12020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>84</v>
       </c>
